--- a/wfms/src/main/resources/templates/template_create_user.xlsx
+++ b/wfms/src/main/resources/templates/template_create_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\DuAnHocThem\DoAnQuanLyCongViec\swp490_g5_be\wfms\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf59153fc7b6c1fa/Máy tính/wfms/swp490_g5_be/wfms/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A6EC3-946A-4616-8570-B7171DC271F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17F69A84-2E84-470F-AF8C-E489F3E31787}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{17F69A84-2E84-470F-AF8C-E489F3E31787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,20 +463,20 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
